--- a/data/trans_dic/P25A$otro-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,01</t>
+          <t>0,85; 7,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 13,88</t>
+          <t>1,7; 11,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,66</t>
+          <t>4,55; 17,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 19,69</t>
+          <t>2,59; 21,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,51</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 29,41</t>
+          <t>7,27; 27,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,4</t>
+          <t>1,47; 8,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,4</t>
+          <t>1,86; 9,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 18,4</t>
+          <t>6,76; 18,29</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,54</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 8,78</t>
+          <t>1,07; 9,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 23,78</t>
+          <t>6,71; 23,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 29,89</t>
+          <t>6,49; 28,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,83</t>
+          <t>2,03; 17,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 22,69</t>
+          <t>5,55; 20,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 11,81</t>
+          <t>2,51; 10,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,74</t>
+          <t>2,12; 9,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,08; 19,11</t>
+          <t>7,8; 19,14</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 22,52</t>
+          <t>7,5; 22,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 35,48</t>
+          <t>4,53; 35,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,86</t>
+          <t>0,0; 18,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,78</t>
+          <t>0,0; 33,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,48</t>
+          <t>1,59; 9,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,14</t>
+          <t>0,48; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 21,39</t>
+          <t>7,37; 20,93</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,72</t>
+          <t>1,7; 6,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,32</t>
+          <t>0,64; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,68</t>
+          <t>3,4; 9,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 21,41</t>
+          <t>4,41; 19,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 15,96</t>
+          <t>3,62; 15,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 19,46</t>
+          <t>5,82; 20,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,66</t>
+          <t>2,78; 7,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,69</t>
+          <t>2,06; 5,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,36</t>
+          <t>4,75; 10,48</t>
         </is>
       </c>
     </row>
@@ -1130,17 +1131,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,57</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 16,98</t>
+          <t>4,77; 16,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 21,67</t>
+          <t>2,63; 21,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1151,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,33; 28,67</t>
+          <t>9,61; 28,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 7,9</t>
+          <t>0,94; 7,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 3,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,47; 18,52</t>
+          <t>7,63; 18,71</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,76</t>
+          <t>0,0; 82,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 23,05</t>
+          <t>2,64; 20,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,3</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,3</t>
+          <t>0,0; 16,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 20,08</t>
+          <t>1,97; 20,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,55</t>
+          <t>0,0; 7,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 18,06</t>
+          <t>2,23; 19,7</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,88</t>
+          <t>1,4; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,35</t>
+          <t>1,3; 3,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,08</t>
+          <t>7,25; 12,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,37</t>
+          <t>7,25; 15,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,48</t>
+          <t>3,14; 7,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,45; 16,83</t>
+          <t>9,7; 17,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,34</t>
+          <t>3,43; 6,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,18</t>
+          <t>2,14; 4,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,71</t>
+          <t>8,9; 13,02</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5860</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8036</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>814; 7215</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1909; 13363</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4244; 16323</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>987; 8110</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6930</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4463; 16697</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1969; 11851</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3052; 16276</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10463; 28296</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10081</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5986</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8114</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18195</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5208</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>965; 8724</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4890; 17127</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2627; 11412</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1095; 9515</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3712; 14031</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3019; 13096</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3050; 14157</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10909; 26759</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13861</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5413</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14902</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5817</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4814</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7374; 22544</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1104; 8697</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6643</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4357</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2081; 12039</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>953; 8197</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8212; 23327</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9374</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13434</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6790</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9965</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10156</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16165</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15034</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23590</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4618; 17920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2026; 11300</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7738; 21921</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2795; 12658</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4101; 17372</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5044; 17770</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9327; 26349</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8891; 24550</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14946; 32963</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2912</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12466</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2912</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22381</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1902</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6217</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5135; 17790</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>935; 7683</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6749; 20136</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>927; 7864</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6230</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13574; 33288</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3232</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1460</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1589</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4607</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1294; 9800</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5234</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5795</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1073; 11200</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4937</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>929; 8217</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>57326</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>27487</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41800</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>100586</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8718; 23428</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10634; 29115</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>43893; 73216</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>18170; 38337</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>12083; 29741</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>32436; 57294</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29953; 55253</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25737; 51178</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>83701; 122353</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$otro-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
